--- a/Practice/Files/CountBooks.xlsx
+++ b/Practice/Files/CountBooks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <x:si>
     <x:t>ФИО</x:t>
   </x:si>
@@ -34,52 +34,22 @@
     <x:t>Количество книг</x:t>
   </x:si>
   <x:si>
-    <x:t>Суворов Николай Михайлович</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>89519591985</x:t>
-  </x:si>
-  <x:si>
-    <x:t>suvorov007@yandex.ru</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28.04.2019</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Порошенко Петр Алексеевич</x:t>
+    <x:t>Сидоров Сидр Сидрыч</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+7(342)2276654</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Halo@yandex.ru</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02.05.2019</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>44112684000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PorohP@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29.04.2019</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Сидоров Сидр Сидрыч</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+7(342)2276654</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Halo@yandex.ru</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02.05.2019</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -476,16 +446,16 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F4"/>
+  <x:dimension ref="A1:F2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="29.150625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="21.940625" style="1" customWidth="1"/>
     <x:col min="2" max="2" width="11.300625" style="1" customWidth="1"/>
     <x:col min="3" max="3" width="15.840625" style="1" customWidth="1"/>
-    <x:col min="4" max="4" width="22.120625" style="1" customWidth="1"/>
+    <x:col min="4" max="4" width="16.070625" style="1" customWidth="1"/>
     <x:col min="5" max="5" width="18.060625" style="1" customWidth="1"/>
     <x:col min="6" max="6" width="16.910625" style="1" customWidth="1"/>
   </x:cols>
@@ -528,46 +498,6 @@
       </x:c>
       <x:c r="F2" s="3" t="s">
         <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:6">
-      <x:c r="A3" s="3" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B3" s="3" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C3" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D3" s="3" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="E3" s="3" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="F3" s="3" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:6">
-      <x:c r="A4" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B4" s="3" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C4" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D4" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="E4" s="3" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="F4" s="3" t="s">
-        <x:v>7</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
